--- a/examples/data/source.xlsx
+++ b/examples/data/source.xlsx
@@ -17,10 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,22 +26,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCCCCC"/>
-        <bgColor rgb="00CCCCCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -58,10 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,133 +423,780 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>CustomerID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>FirstName</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>LastName</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PhoneNumber</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>RegistrationDate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TotalPurchases</t>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>LastLoginDate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1001</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CUST0001</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>FirstName1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>LastName1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>john.doe@email.com</t>
+          <t>customer1@example.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>123-456-7890</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44941</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1250.5</v>
+          <t>2023-10-13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-10-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1002</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CUST0002</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>FirstName2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>LastName2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>jane.smith@email.com</t>
+          <t>customer2@example.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>234-567-8901</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2100.75</v>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-02-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1003</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CUST0003</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>FirstName3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>LastName3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bob.j@email.com</t>
+          <t>customer3@example.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>345-678-9012</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44995</v>
-      </c>
-      <c r="G4" t="n">
-        <v>750.25</v>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-10-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CUST0004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FirstName4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LastName4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>customer4@example.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2023-01-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CUST0005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FirstName5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LastName5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>customer5@example.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-06-16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2023-07-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CUST0006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FirstName6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LastName6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>customer6@example.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2023-11-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CUST0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FirstName7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LastName7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>customer7@example.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2023-07-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CUST0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FirstName8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LastName8</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>customer8@example.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-01-29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2023-02-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CUST0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FirstName9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LastName9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>customer9@example.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2023-10-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CUST0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FirstName10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LastName10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>customer10@example.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2023-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CUST0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FirstName11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LastName11</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>customer11@example.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2023-03-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CUST0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FirstName12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LastName12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>customer12@example.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2023-03-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CUST0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FirstName13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LastName13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>customer13@example.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2023-04-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CUST0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FirstName14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LastName14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>customer14@example.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2023-07-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CUST0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FirstName15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LastName15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>customer15@example.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-01-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CUST0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FirstName16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LastName16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>customer16@example.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2023-12-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CUST0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FirstName17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>LastName17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>customer17@example.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2023-03-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CUST0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FirstName18</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LastName18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>customer18@example.com</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2023-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CUST0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FirstName19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>LastName19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>customer19@example.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2023-02-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CUST0020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FirstName20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>LastName20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>customer20@example.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -576,7 +1210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,148 +1219,1790 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>TransactionID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>CustomerID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ProductID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>UnitPrice</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>T001</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>P101</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="G2" t="n">
-        <v>51.98</v>
+          <t>TRX0001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CUST0003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>189.92</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Transaction note 1</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>T002</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45092</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>P102</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>99.98999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>99.98999999999999</v>
+          <t>TRX0002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CUST0006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-01-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>34.19</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Transaction note 2</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T003</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45097</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>P101</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="G4" t="n">
-        <v>77.97</v>
+          <t>TRX0003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CUST0012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-12-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>619.0700000000001</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Transaction note 3</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T004</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45102</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>P103</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>149.99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>149.99</v>
+          <t>TRX0004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CUST0003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-02-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>606.09</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Transaction note 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TRX0005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CUST0011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-11-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>103.96</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Transaction note 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TRX0006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CUST0018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-10-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>255.49</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Transaction note 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TRX0007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CUST0014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-04-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>305.26</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Transaction note 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TRX0008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CUST0019</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-04-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>138.02</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Transaction note 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TRX0009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CUST0017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-01-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Transaction note 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TRX0010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CUST0002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>343.83</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Transaction note 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TRX0011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CUST0007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023-06-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>270.81</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Transaction note 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TRX0012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CUST0012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-07-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>108.61</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Transaction note 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TRX0013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CUST0018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-05-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>813.8</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Transaction note 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TRX0014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CUST0014</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2023-07-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>998.25</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Transaction note 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TRX0015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CUST0001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2023-12-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Transaction note 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TRX0016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CUST0013</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2023-10-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>284.1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Transaction note 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TRX0017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CUST0019</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2023-01-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>606.17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Transaction note 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TRX0018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CUST0005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2023-09-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>381.3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Transaction note 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TRX0019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CUST0013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2023-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>837.83</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Transaction note 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TRX0020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CUST0001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2023-12-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Transaction note 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TRX0021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CUST0019</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023-03-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>143.65</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Transaction note 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TRX0022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CUST0017</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2023-02-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>795.78</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Transaction note 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TRX0023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CUST0010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2023-06-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Transaction note 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TRX0024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CUST0004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2023-11-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>308.71</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Transaction note 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TRX0025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CUST0006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2023-06-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>631.34</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Transaction note 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TRX0026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CUST0020</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023-07-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>761.7</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Transaction note 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TRX0027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CUST0012</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2023-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>300.05</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Transaction note 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TRX0028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CUST0004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2023-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>104.89</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Transaction note 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TRX0029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CUST0017</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>161.74</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Transaction note 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TRX0030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CUST0001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2023-10-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>584.12</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Transaction note 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TRX0031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CUST0001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2023-05-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>607.14</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Transaction note 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TRX0032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CUST0011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023-10-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>586.45</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Transaction note 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TRX0033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CUST0008</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2023-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>330.22</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Transaction note 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TRX0034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CUST0012</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2023-07-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>281.7</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Transaction note 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TRX0035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CUST0001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2023-03-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>920.98</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Transaction note 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TRX0036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CUST0005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2023-04-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>697.71</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Transaction note 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TRX0037</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CUST0018</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2023-02-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>528.34</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Transaction note 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TRX0038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CUST0002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2023-01-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>52.11</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Transaction note 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TRX0039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CUST0001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2023-09-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>829.05</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Transaction note 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TRX0040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CUST0019</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2023-09-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>979.66</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Transaction note 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TRX0041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CUST0018</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2023-06-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>482.52</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Transaction note 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TRX0042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CUST0003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2023-03-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Transaction note 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TRX0043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CUST0020</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2023-03-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>615.96</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Transaction note 43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TRX0044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CUST0010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2023-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>143.05</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Transaction note 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TRX0045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CUST0009</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2023-03-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>665.04</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Credit</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Transaction note 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TRX0046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CUST0016</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2023-04-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>616.3</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Transaction note 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TRX0047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CUST0007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2023-03-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>654.54</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Transaction note 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TRX0048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CUST0007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2023-06-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>513.0700000000001</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Transaction note 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TRX0049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CUST0013</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2023-03-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>475.24</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Refund</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Transaction note 49</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TRX0050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CUST0004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2023-02-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>406.47</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Transaction note 50</t>
+        </is>
       </c>
     </row>
   </sheetData>
